--- a/docentes/Villanueva Morales Luis Arturo - Estadisticos 2020.xlsx
+++ b/docentes/Villanueva Morales Luis Arturo - Estadisticos 2020.xlsx
@@ -1306,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1329,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1352,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1375,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1398,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1421,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1444,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1467,7 +1467,7 @@
         <v>13</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1490,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1513,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1536,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1559,7 +1559,7 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1582,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1605,7 +1605,7 @@
         <v>14</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1628,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1651,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1674,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1697,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1720,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1743,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1766,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1789,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1812,7 +1812,7 @@
         <v>14</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1835,7 +1835,7 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1858,7 +1858,7 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1881,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1904,7 +1904,7 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1927,7 +1927,7 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1950,7 +1950,7 @@
         <v>15</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1973,7 +1973,7 @@
         <v>15</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Villanueva Morales Luis Arturo - Estadisticos 2020.xlsx
+++ b/docentes/Villanueva Morales Luis Arturo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -83,243 +83,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>DE LA TEJA</t>
-  </si>
-  <si>
-    <t>DE LUNA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>LIMON</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>CANTELLAN</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>IBAÑEZ</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>GIRON</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>TEHUINTLE</t>
-  </si>
-  <si>
-    <t>URBINA</t>
-  </si>
-  <si>
-    <t>YOPIHUA</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>XOCHIQUISQUI</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
-    <t>TZIZIHUA</t>
-  </si>
-  <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>VELASCO</t>
-  </si>
-  <si>
-    <t>VELAZCO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>MATEOS</t>
-  </si>
-  <si>
-    <t>CUEVAS</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t>YAIR</t>
-  </si>
-  <si>
-    <t>ANALI</t>
-  </si>
-  <si>
-    <t>ALISSON FERNANDA</t>
-  </si>
-  <si>
-    <t>EUDY</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>MARIJOSE</t>
-  </si>
-  <si>
-    <t>ESMERALDA</t>
-  </si>
-  <si>
-    <t>DAMARIS</t>
-  </si>
-  <si>
-    <t>DANIELA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>MARCOS</t>
-  </si>
-  <si>
-    <t>JESUS SAMUEL</t>
-  </si>
-  <si>
-    <t>ARIZBETH</t>
-  </si>
-  <si>
-    <t>JUAN GUILLERMO</t>
-  </si>
-  <si>
-    <t>DORA LUZ</t>
-  </si>
-  <si>
-    <t>ZURIEL ARTURO</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
-  </si>
-  <si>
-    <t>JORGE ALEJANDRO</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>ARLETH</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>VICTOR HUGO</t>
-  </si>
-  <si>
-    <t>JAQUELINE</t>
-  </si>
-  <si>
-    <t>JESUS ALFONSO</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>LUZ GUADALUPE</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>ARACELI</t>
-  </si>
-  <si>
-    <t>AMAYRANI</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1286,696 +1049,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920093</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920066</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920191</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920218</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19220030050208</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920122</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920135</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920137</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920320</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920322</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920323</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920324</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920329</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920335</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920058</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920061</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920064</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920068</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>18202030110266</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920397</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920396</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920334</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>18330051920228</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>18330051920246</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>17330051920302</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>18330051920256</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>18330051920283</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>18330051920286</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>18330051920292</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Villanueva Morales Luis Arturo - Estadisticos 2020.xlsx
+++ b/docentes/Villanueva Morales Luis Arturo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
   <si>
     <t>Mat</t>
   </si>
@@ -83,6 +83,153 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>CERONIO</t>
+  </si>
+  <si>
+    <t>CRESCENCIO</t>
+  </si>
+  <si>
+    <t>GIRON</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>TELE</t>
+  </si>
+  <si>
+    <t>TEHUINTLE</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>MATEOS</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MONTES</t>
+  </si>
+  <si>
+    <t>CUEVAS</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>ISIDRO</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>ALAN URIEL</t>
+  </si>
+  <si>
+    <t>ADALI</t>
+  </si>
+  <si>
+    <t>MIRIAM AMERICA</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>MARI CARMEN</t>
+  </si>
+  <si>
+    <t>JESUS ALFONSO</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>EMIR ANDRES</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>LUZ GUADALUPE</t>
+  </si>
+  <si>
+    <t>PAMELA DENISSE</t>
+  </si>
+  <si>
+    <t>SAHARA DE JESUS</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>ARACELI</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>AMAYRANI</t>
   </si>
 </sst>
 </file>
@@ -486,19 +633,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>83.33</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -512,19 +659,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>54.84</v>
+        <v>83.87</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -538,19 +685,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>71.43000000000001</v>
+        <v>80.95</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -564,19 +711,19 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>82.5</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -590,19 +737,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>30.43</v>
+        <v>82.61</v>
       </c>
       <c r="H6">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -684,16 +831,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H2">
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -707,16 +857,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>83.87</v>
+      </c>
+      <c r="H3">
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -730,16 +883,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>80.95</v>
+      </c>
+      <c r="H4">
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -753,16 +909,19 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>82.5</v>
+      </c>
+      <c r="H5">
+        <v>7.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -776,16 +935,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>82.61</v>
+      </c>
+      <c r="H6">
+        <v>6.9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -864,19 +1026,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>83.33</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -890,19 +1052,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>54.84</v>
+        <v>83.87</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -916,19 +1078,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>71.43000000000001</v>
+        <v>80.95</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -942,19 +1104,19 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>82.5</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -968,19 +1130,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>30.43</v>
+        <v>82.61</v>
       </c>
       <c r="H6">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1016,7 +1178,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1049,6 +1211,443 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920061</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>17330051420363</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330061460060</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920250</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>17330051920302</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920256</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>18330051920274</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920305</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>18330051920283</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18330051920286</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18330051920289</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18330051920292</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Villanueva Morales Luis Arturo - Estadisticos 2020.xlsx
+++ b/docentes/Villanueva Morales Luis Arturo - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>Mat</t>
   </si>
@@ -85,151 +85,40 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
     <t>ROBLES</t>
   </si>
   <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>CERONIO</t>
-  </si>
-  <si>
-    <t>CRESCENCIO</t>
-  </si>
-  <si>
-    <t>GIRON</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>TELE</t>
-  </si>
-  <si>
-    <t>TEHUINTLE</t>
-  </si>
-  <si>
-    <t>URBINA</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>YOPIHUA</t>
+    <t>XOCHIQUISQUI</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>ISIDRO</t>
   </si>
   <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>MATEOS</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>MONTES</t>
-  </si>
-  <si>
-    <t>CUEVAS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>ISIDRO</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
+    <t>DAMARIS</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
   </si>
   <si>
     <t>ALAN URIEL</t>
-  </si>
-  <si>
-    <t>ADALI</t>
-  </si>
-  <si>
-    <t>MIRIAM AMERICA</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>MARI CARMEN</t>
-  </si>
-  <si>
-    <t>JESUS ALFONSO</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>EMIR ANDRES</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>LUZ GUADALUPE</t>
-  </si>
-  <si>
-    <t>PAMELA DENISSE</t>
-  </si>
-  <si>
-    <t>SAHARA DE JESUS</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>ARACELI</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>AMAYRANI</t>
   </si>
 </sst>
 </file>
@@ -763,19 +652,19 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -961,16 +850,19 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H7">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -1156,16 +1048,16 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H7">
         <v>8</v>
@@ -1178,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1213,22 +1105,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920061</v>
+        <v>20330051920137</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1236,22 +1128,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920224</v>
+        <v>20330051920325</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1259,16 +1151,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920226</v>
+        <v>18330051920245</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1282,370 +1174,25 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920220</v>
+        <v>20330051920061</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>17330051420363</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920228</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920240</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920244</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920246</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330061460060</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920250</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>17330051920302</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920256</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>18330051920274</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330051920305</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>18330051920283</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>18330051920286</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>18330051920289</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>18330051920292</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
